--- a/Бортовой Журнал.xlsx
+++ b/Бортовой Журнал.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="604">
   <si>
     <t>№ ТО</t>
   </si>
@@ -2058,6 +2058,12 @@
       <t>, 
 Jakoparts J4705005</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MR360150 </t>
+  </si>
+  <si>
+    <t>итог</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2345,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2488,6 +2494,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2800,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
@@ -5200,10 +5209,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5278,8 +5287,20 @@
       <c r="D3" s="33" t="s">
         <v>449</v>
       </c>
+      <c r="E3" s="34">
+        <v>291.23</v>
+      </c>
+      <c r="F3" s="34">
+        <v>291.23</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H3" s="34" t="s">
         <v>450</v>
+      </c>
+      <c r="I3" s="34">
+        <v>291.23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5292,6 +5313,18 @@
       <c r="D4" s="33" t="s">
         <v>452</v>
       </c>
+      <c r="E4" s="34">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="F4" s="34">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I4" s="34">
+        <v>142.16999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
@@ -5303,8 +5336,20 @@
       <c r="D5" s="33" t="s">
         <v>454</v>
       </c>
+      <c r="E5" s="34">
+        <v>4193.7</v>
+      </c>
+      <c r="F5" s="34">
+        <v>4193.7</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H5" s="33" t="s">
         <v>455</v>
+      </c>
+      <c r="I5" s="34">
+        <v>4193.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5317,8 +5362,20 @@
       <c r="D6" s="33" t="s">
         <v>457</v>
       </c>
+      <c r="E6" s="34">
+        <v>630.05999999999995</v>
+      </c>
+      <c r="F6" s="34">
+        <v>630.05999999999995</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H6" s="33" t="s">
         <v>458</v>
+      </c>
+      <c r="I6" s="34">
+        <v>630.05999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5331,8 +5388,20 @@
       <c r="D7" s="33" t="s">
         <v>460</v>
       </c>
+      <c r="E7" s="34">
+        <v>871.81</v>
+      </c>
+      <c r="F7" s="34">
+        <v>871.81</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H7" s="33" t="s">
         <v>461</v>
+      </c>
+      <c r="I7" s="34">
+        <v>871.81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5345,8 +5414,20 @@
       <c r="D8" s="33" t="s">
         <v>463</v>
       </c>
+      <c r="E8" s="34">
+        <v>3588.07</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3588.07</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H8" s="34" t="s">
         <v>464</v>
+      </c>
+      <c r="I8" s="34">
+        <v>3588.07</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5359,6 +5440,18 @@
       <c r="D9" s="33" t="s">
         <v>466</v>
       </c>
+      <c r="E9" s="34">
+        <v>281.83999999999997</v>
+      </c>
+      <c r="F9" s="34">
+        <v>281.83999999999997</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I9" s="34">
+        <v>281.83999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
@@ -5370,8 +5463,20 @@
       <c r="D10" s="33" t="s">
         <v>468</v>
       </c>
+      <c r="E10" s="34">
+        <v>1934.01</v>
+      </c>
+      <c r="F10" s="34">
+        <v>1934.01</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H10" s="45" t="s">
         <v>550</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1934.01</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5379,7 +5484,7 @@
       <c r="D11" s="34"/>
       <c r="F11" s="57">
         <f>SUM(F3:F10)</f>
-        <v>0</v>
+        <v>11932.89</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -5461,16 +5566,25 @@
       <c r="D16" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="53">
+        <v>499.79</v>
+      </c>
+      <c r="F16" s="53">
+        <v>499.79</v>
+      </c>
+      <c r="I16" s="53">
+        <v>499.79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="D17" s="8"/>
       <c r="F17" s="57">
         <f>SUM(F13:F16)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>715.79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>472</v>
       </c>
@@ -5478,7 +5592,7 @@
       <c r="E18" s="52"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>473</v>
       </c>
@@ -5488,8 +5602,20 @@
       <c r="D19" s="33" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="53">
+        <v>70.77</v>
+      </c>
+      <c r="F19" s="33">
+        <v>849.24</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I19" s="53">
+        <v>70.77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>475</v>
       </c>
@@ -5499,8 +5625,20 @@
       <c r="D20" s="33" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="53">
+        <v>149.06</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1788.72</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I20" s="53">
+        <v>149.06</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>477</v>
       </c>
@@ -5510,11 +5648,23 @@
       <c r="D21" s="33" t="s">
         <v>478</v>
       </c>
+      <c r="E21" s="53">
+        <v>227.97</v>
+      </c>
+      <c r="F21" s="33">
+        <v>455.94</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="H21" s="34" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="53">
+        <v>227.97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>542</v>
       </c>
@@ -5524,8 +5674,20 @@
       <c r="D22" s="33" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="53">
+        <v>147.18</v>
+      </c>
+      <c r="F22" s="33">
+        <v>294.36</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I22" s="53">
+        <v>147.18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>481</v>
       </c>
@@ -5535,8 +5697,20 @@
       <c r="D23" s="33" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="53">
+        <v>356.99</v>
+      </c>
+      <c r="F23" s="53">
+        <v>356.99</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I23" s="53">
+        <v>356.99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>483</v>
       </c>
@@ -5546,8 +5720,20 @@
       <c r="D24" s="33" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="53">
+        <v>212.94</v>
+      </c>
+      <c r="F24" s="53">
+        <v>212.94</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I24" s="53">
+        <v>212.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>485</v>
       </c>
@@ -5557,8 +5743,20 @@
       <c r="D25" s="33" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="53">
+        <v>246.76</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1480.56</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I25" s="53">
+        <v>246.76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>487</v>
       </c>
@@ -5568,8 +5766,20 @@
       <c r="D26" s="33" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E26" s="53">
+        <v>497.28</v>
+      </c>
+      <c r="F26" s="33">
+        <v>994.56</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I26" s="53">
+        <v>497.28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>546</v>
       </c>
@@ -5580,7 +5790,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>363</v>
       </c>
@@ -5590,14 +5800,26 @@
       <c r="D28" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="53">
+        <v>206.05</v>
+      </c>
+      <c r="F28" s="53">
+        <v>206.05</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I28" s="53">
+        <v>206.05</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29" s="57">
         <f>SUM(F19:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6639.36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
         <v>490</v>
       </c>
@@ -5605,7 +5827,7 @@
       <c r="E30" s="52"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>491</v>
       </c>
@@ -5615,8 +5837,17 @@
       <c r="D31" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="53">
+        <v>631.30999999999995</v>
+      </c>
+      <c r="F31" s="33">
+        <v>3787.86</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>111</v>
       </c>
@@ -5627,14 +5858,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
       <c r="F33" s="57">
         <f>SUM(F31:F32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3787.86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
         <v>492</v>
       </c>
@@ -5643,7 +5874,7 @@
       <c r="E34" s="52"/>
       <c r="F34" s="40"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>493</v>
       </c>
@@ -5653,8 +5884,23 @@
       <c r="D35" s="33" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="34">
+        <v>494.97</v>
+      </c>
+      <c r="F35" s="34">
+        <v>494.97</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="J35" s="34">
+        <v>494.97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>425</v>
       </c>
@@ -5664,8 +5910,20 @@
       <c r="D36" s="33" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="34">
+        <v>657.41</v>
+      </c>
+      <c r="F36" s="34">
+        <v>657.41</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="J36" s="34">
+        <v>657.41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>426</v>
       </c>
@@ -5675,14 +5933,26 @@
       <c r="D37" s="33" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="34">
+        <v>803.04</v>
+      </c>
+      <c r="F37" s="34">
+        <v>803.04</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="J37" s="34">
+        <v>803.04</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F38" s="57">
         <f>SUM(F35:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1955.42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
         <v>429</v>
       </c>
@@ -5691,7 +5961,7 @@
       <c r="E39" s="52"/>
       <c r="F39" s="40"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
         <v>430</v>
       </c>
@@ -5717,7 +5987,7 @@
         <v>4947.9399999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
         <v>433</v>
       </c>
@@ -5743,7 +6013,7 @@
         <v>4689.97</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
         <v>436</v>
       </c>
@@ -5769,7 +6039,7 @@
         <v>1266.2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="44" t="s">
         <v>547</v>
       </c>
@@ -5792,7 +6062,7 @@
         <v>791.3</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
         <v>549</v>
       </c>
@@ -5804,7 +6074,7 @@
       </c>
       <c r="I44" s="53"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="33" t="s">
         <v>497</v>
       </c>
@@ -5830,7 +6100,7 @@
         <v>2526.1799999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="44" t="s">
         <v>548</v>
       </c>
@@ -5850,7 +6120,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
         <v>508</v>
       </c>
@@ -5870,7 +6140,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="33" t="s">
         <v>510</v>
       </c>
@@ -5935,10 +6205,20 @@
       <c r="D52" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="47"/>
+      <c r="E52" s="46">
+        <v>6138.77</v>
+      </c>
+      <c r="F52" s="46">
+        <v>6138.77</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="I52" s="54">
-        <v>6514</v>
+        <v>6512.89</v>
+      </c>
+      <c r="J52" s="46">
+        <v>6138.77</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5951,10 +6231,20 @@
       <c r="D53" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="47"/>
+      <c r="E53" s="46">
+        <v>6247.88</v>
+      </c>
+      <c r="F53" s="46">
+        <v>6247.88</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>595</v>
+      </c>
       <c r="I53" s="54">
-        <v>6670</v>
+        <v>6668.84</v>
+      </c>
+      <c r="J53" s="46">
+        <v>6247.88</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5970,7 +6260,7 @@
       <c r="E54" s="54">
         <v>594.25</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="58">
         <v>2377</v>
       </c>
       <c r="G54" s="34" t="s">
@@ -5993,7 +6283,7 @@
       <c r="E55" s="54">
         <v>72.73</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="58">
         <v>292</v>
       </c>
       <c r="G55" s="34" t="s">
@@ -6006,7 +6296,7 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F56" s="57">
         <f>SUM(F52:F55)</f>
-        <v>2669</v>
+        <v>15055.650000000001</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6400,13 +6690,13 @@
       <c r="C80" s="34"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F81" s="57">
         <f>SUM(F75:F80)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="2:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="39" t="s">
         <v>500</v>
       </c>
@@ -6415,7 +6705,7 @@
       <c r="E82" s="52"/>
       <c r="F82" s="40"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="33" t="s">
         <v>501</v>
       </c>
@@ -6426,7 +6716,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>503</v>
       </c>
@@ -6435,6 +6725,24 @@
       </c>
       <c r="D84" s="33" t="s">
         <v>504</v>
+      </c>
+      <c r="E84" s="53">
+        <v>374</v>
+      </c>
+      <c r="F84" s="33">
+        <v>374</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="F85" s="57">
+        <f>SUM(F11,F17,F29,F33,F38,F50,F56,F66,F73)</f>
+        <v>85407.83</v>
       </c>
     </row>
   </sheetData>

--- a/Бортовой Журнал.xlsx
+++ b/Бортовой Журнал.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="19320" windowHeight="15480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="19320" windowHeight="15480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БортЖурнал" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="615">
   <si>
     <t>№ ТО</t>
   </si>
@@ -1656,9 +1656,6 @@
     <t>Mitsubishi MD 303148</t>
   </si>
   <si>
-    <t>70-31414-10</t>
-  </si>
-  <si>
     <t>Электрика ДВС:</t>
   </si>
   <si>
@@ -1825,10 +1822,6 @@
   </si>
   <si>
     <t>Устранение течи заднего редуктора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Герметик Виктор Рейнз - 
-для герметизации текущего поддона ДВС. </t>
   </si>
   <si>
     <r>
@@ -2018,9 +2011,6 @@
     <t>Перетяжка пленкой кузова</t>
   </si>
   <si>
-    <t>в заказе</t>
-  </si>
-  <si>
     <t>Болт крепления верхнего рычага</t>
   </si>
   <si>
@@ -2064,6 +2054,48 @@
   </si>
   <si>
     <t>итог</t>
+  </si>
+  <si>
+    <t>Сайлентблок моста передней подвески</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полиуретан 3-06-898 </t>
+  </si>
+  <si>
+    <t>Mitsubishi MB 430694</t>
+  </si>
+  <si>
+    <t>Ремкомплект переднего тормозного суппорта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsubishi MB 857840 </t>
+  </si>
+  <si>
+    <t>Подушка двигателя под коробку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Febest MM-009 </t>
+  </si>
+  <si>
+    <t>Подушка двигателя задняя успокоитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsubishi MB 581845 </t>
+  </si>
+  <si>
+    <t>Опора двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsubishi MR 210867 </t>
+  </si>
+  <si>
+    <t>Mitsubishi MR 133079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газовые упоры на капот </t>
+  </si>
+  <si>
+    <t>upor-kapota.ru</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2377,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2497,6 +2529,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4677,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,6 +4729,7 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4703,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4718,7 +4758,7 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>249</v>
@@ -4743,7 +4783,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="25">
         <v>2</v>
@@ -4752,7 +4792,7 @@
         <v>290</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>291</v>
@@ -4775,7 +4815,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6" s="25">
         <v>2</v>
@@ -4784,7 +4824,7 @@
         <v>296</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>297</v>
@@ -4853,10 +4893,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>536</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>537</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>325</v>
@@ -4982,7 +5022,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B19" s="25">
         <v>2</v>
@@ -4991,7 +5031,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>39</v>
@@ -5033,7 +5073,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B22" s="25">
         <v>2</v>
@@ -5042,7 +5082,7 @@
         <v>167</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>265</v>
@@ -5065,7 +5105,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B24" s="25">
         <v>3</v>
@@ -5074,7 +5114,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>81</v>
@@ -5102,13 +5142,13 @@
         <v>419</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="C26" t="s">
         <v>534</v>
       </c>
-      <c r="C26" t="s">
-        <v>535</v>
-      </c>
       <c r="D26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>420</v>
@@ -5116,7 +5156,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="25">
         <v>2</v>
@@ -5125,7 +5165,7 @@
         <v>427</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>428</v>
@@ -5133,13 +5173,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B28" s="33">
         <v>2</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D28" s="33">
         <v>462</v>
@@ -5150,13 +5190,13 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" s="33">
         <v>2</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D29" s="33">
         <v>632</v>
@@ -5167,13 +5207,13 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B30" s="33">
         <v>2</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D30" s="33">
         <v>676</v>
@@ -5184,19 +5224,51 @@
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B31" s="33">
         <v>1</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D31" s="33">
         <v>1062</v>
       </c>
       <c r="E31" s="33">
         <v>1062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" s="33">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D32" s="33">
+        <v>290.44</v>
+      </c>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B33" s="25">
+        <v>1</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="D33" s="33">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="33">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -5209,16 +5281,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="33" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="33" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="33" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="53" customWidth="1"/>
@@ -5244,10 +5314,10 @@
         <v>135</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>445</v>
@@ -5256,16 +5326,16 @@
         <v>446</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>581</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,8 +5363,8 @@
       <c r="F3" s="34">
         <v>291.23</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>595</v>
+      <c r="G3" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>450</v>
@@ -5319,8 +5389,8 @@
       <c r="F4" s="34">
         <v>142.16999999999999</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>595</v>
+      <c r="G4" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I4" s="34">
         <v>142.16999999999999</v>
@@ -5342,8 +5412,8 @@
       <c r="F5" s="34">
         <v>4193.7</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>595</v>
+      <c r="G5" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>455</v>
@@ -5368,8 +5438,8 @@
       <c r="F6" s="34">
         <v>630.05999999999995</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>595</v>
+      <c r="G6" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>458</v>
@@ -5394,8 +5464,8 @@
       <c r="F7" s="34">
         <v>871.81</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>595</v>
+      <c r="G7" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>461</v>
@@ -5420,8 +5490,8 @@
       <c r="F8" s="34">
         <v>3588.07</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>595</v>
+      <c r="G8" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>464</v>
@@ -5446,8 +5516,8 @@
       <c r="F9" s="34">
         <v>281.83999999999997</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>595</v>
+      <c r="G9" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I9" s="34">
         <v>281.83999999999997</v>
@@ -5469,11 +5539,11 @@
       <c r="F10" s="34">
         <v>1934.01</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>595</v>
+      <c r="G10" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I10" s="34">
         <v>1934.01</v>
@@ -5572,6 +5642,9 @@
       <c r="F16" s="53">
         <v>499.79</v>
       </c>
+      <c r="G16" s="34" t="s">
+        <v>471</v>
+      </c>
       <c r="I16" s="53">
         <v>499.79</v>
       </c>
@@ -5608,8 +5681,8 @@
       <c r="F19" s="33">
         <v>849.24</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>595</v>
+      <c r="G19" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I19" s="53">
         <v>70.77</v>
@@ -5631,8 +5704,8 @@
       <c r="F20" s="33">
         <v>1788.72</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>595</v>
+      <c r="G20" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I20" s="53">
         <v>149.06</v>
@@ -5654,8 +5727,8 @@
       <c r="F21" s="33">
         <v>455.94</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>595</v>
+      <c r="G21" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>479</v>
@@ -5666,7 +5739,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C22" s="33">
         <v>2</v>
@@ -5680,8 +5753,8 @@
       <c r="F22" s="33">
         <v>294.36</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>595</v>
+      <c r="G22" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I22" s="53">
         <v>147.18</v>
@@ -5703,8 +5776,8 @@
       <c r="F23" s="53">
         <v>356.99</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>595</v>
+      <c r="G23" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I23" s="53">
         <v>356.99</v>
@@ -5726,8 +5799,8 @@
       <c r="F24" s="53">
         <v>212.94</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>595</v>
+      <c r="G24" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I24" s="53">
         <v>212.94</v>
@@ -5749,8 +5822,8 @@
       <c r="F25" s="33">
         <v>1480.56</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>595</v>
+      <c r="G25" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I25" s="53">
         <v>246.76</v>
@@ -5772,977 +5845,1096 @@
       <c r="F26" s="33">
         <v>994.56</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>595</v>
+      <c r="G26" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="I26" s="53">
         <v>497.28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="C27" s="33">
         <v>1</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>489</v>
+        <v>612</v>
+      </c>
+      <c r="E27" s="53">
+        <v>2882.79</v>
+      </c>
+      <c r="F27" s="53">
+        <v>2882.79</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="I27" s="53">
+        <v>2882.79</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>363</v>
+      <c r="B28" s="44" t="s">
+        <v>608</v>
       </c>
       <c r="C28" s="33">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" s="53">
+        <v>1059</v>
+      </c>
+      <c r="F28" s="53">
+        <v>1059</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I28" s="53">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="E29" s="53">
+        <v>2039.03</v>
+      </c>
+      <c r="F29" s="33">
+        <v>4078.06</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I29" s="53">
+        <v>2039.03</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E30" s="53">
         <v>206.05</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F30" s="53">
         <v>206.05</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I28" s="53">
+      <c r="G30" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I30" s="53">
         <v>206.05</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="57">
-        <f>SUM(F19:F28)</f>
-        <v>6639.36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="57">
+        <f>SUM(F19:F30)</f>
+        <v>14659.209999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="40"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="C33" s="33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="53">
+        <v>631.30999999999995</v>
+      </c>
+      <c r="F33" s="33">
+        <v>3787.86</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="33">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="F35" s="57">
+        <f>SUM(F33:F34)</f>
+        <v>3787.86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="C31" s="33">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="53">
-        <v>631.30999999999995</v>
-      </c>
-      <c r="F31" s="33">
-        <v>3787.86</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="33">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="F33" s="57">
-        <f>SUM(F31:F32)</f>
-        <v>3787.86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
         <v>492</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>493</v>
-      </c>
-      <c r="C35" s="33">
-        <v>1</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="E35" s="34">
-        <v>494.97</v>
-      </c>
-      <c r="F35" s="34">
-        <v>494.97</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="J35" s="34">
-        <v>494.97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>425</v>
-      </c>
-      <c r="C36" s="33">
-        <v>1</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="E36" s="34">
-        <v>657.41</v>
-      </c>
-      <c r="F36" s="34">
-        <v>657.41</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="J36" s="34">
-        <v>657.41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>426</v>
       </c>
       <c r="C37" s="33">
         <v>1</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="E37" s="34">
+        <v>493</v>
+      </c>
+      <c r="E37" s="53">
+        <v>494.97</v>
+      </c>
+      <c r="F37" s="53">
+        <v>494.97</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="I37" s="53"/>
+      <c r="J37" s="34">
+        <v>494.97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="33">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" s="53">
+        <v>657.41</v>
+      </c>
+      <c r="F38" s="53">
+        <v>657.41</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="34">
+        <v>657.41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="33">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E39" s="53">
         <v>803.04</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F39" s="53">
         <v>803.04</v>
       </c>
-      <c r="G37" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="J37" s="34">
+      <c r="G39" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="34">
         <v>803.04</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="57">
-        <f>SUM(F35:F37)</f>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="57">
+        <f>SUM(F37:F39)</f>
         <v>1955.42</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+    <row r="41" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C40" s="33">
-        <v>1</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="E40" s="53">
-        <v>4947.9399999999996</v>
-      </c>
-      <c r="F40" s="53">
-        <v>4947.9399999999996</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="I40" s="53">
-        <v>4947.9399999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="33">
-        <v>1</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="E41" s="53">
-        <v>4689.97</v>
-      </c>
-      <c r="F41" s="53">
-        <v>4689.97</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="I41" s="53">
-        <v>4689.97</v>
-      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C42" s="33">
         <v>1</v>
       </c>
       <c r="D42" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E42" s="53">
+        <v>4947.9399999999996</v>
+      </c>
+      <c r="F42" s="53">
+        <v>4947.9399999999996</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="I42" s="53">
+        <v>4947.9399999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" s="33">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="53">
+        <v>4689.97</v>
+      </c>
+      <c r="F43" s="53">
+        <v>4689.97</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="I43" s="53">
+        <v>4689.97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="33">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E44" s="53">
         <v>1266.2</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F44" s="53">
         <v>1266.2</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="G44" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I44" s="53">
         <v>1266.2</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
-        <v>547</v>
-      </c>
-      <c r="C43" s="33">
-        <v>2</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="E43" s="33">
-        <v>791.3</v>
-      </c>
-      <c r="F43" s="33">
-        <v>791.3</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I43" s="33">
-        <v>791.3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="C44" s="33">
-        <v>2</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
-        <v>497</v>
+    <row r="45" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="44" t="s">
+        <v>545</v>
       </c>
       <c r="C45" s="33">
         <v>2</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="E45" s="53">
-        <v>2526.1799999999998</v>
+        <v>440</v>
+      </c>
+      <c r="E45" s="33">
+        <v>791.3</v>
       </c>
       <c r="F45" s="33">
-        <v>5052.3599999999997</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="I45" s="53">
-        <v>2526.1799999999998</v>
+        <v>791.3</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I45" s="33">
+        <v>791.3</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C46" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="E46" s="33">
-        <v>1062</v>
-      </c>
-      <c r="F46" s="33">
-        <v>1062</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>595</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C47" s="33">
         <v>2</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E47" s="53">
-        <v>462</v>
+        <v>2526.1799999999998</v>
       </c>
       <c r="F47" s="33">
-        <v>923</v>
-      </c>
-      <c r="G47" s="34" t="s">
+        <v>5052.3599999999997</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
-        <v>510</v>
+      <c r="H47" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="I47" s="53">
+        <v>2526.1799999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="44" t="s">
+        <v>546</v>
       </c>
       <c r="C48" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="E48" s="53">
-        <v>632</v>
+        <v>504</v>
+      </c>
+      <c r="E48" s="33">
+        <v>1062</v>
       </c>
       <c r="F48" s="33">
-        <v>1264</v>
-      </c>
-      <c r="G48" s="34" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G48" s="60" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C49" s="33">
         <v>2</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E49" s="53">
-        <v>676</v>
+        <v>462</v>
       </c>
       <c r="F49" s="33">
-        <v>1351</v>
+        <v>923</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="57">
-        <f>SUM(F40:F49)</f>
+      <c r="B50" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="C50" s="33">
+        <v>2</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E50" s="53">
+        <v>632</v>
+      </c>
+      <c r="F50" s="33">
+        <v>1264</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" s="53">
+        <v>676</v>
+      </c>
+      <c r="F51" s="33">
+        <v>1351</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="57">
+        <f>SUM(F42:F51)</f>
         <v>21347.77</v>
       </c>
     </row>
-    <row r="51" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+    <row r="53" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="C54" s="33">
+        <v>1</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E54" s="53">
+        <v>6138.77</v>
+      </c>
+      <c r="F54" s="61">
+        <v>6138.77</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I54" s="53">
+        <v>6512.89</v>
+      </c>
+      <c r="J54" s="33">
+        <v>6138.77</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="40"/>
-    </row>
-    <row r="52" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="C55" s="33">
+        <v>1</v>
+      </c>
+      <c r="D55" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="C52" s="47">
+      <c r="E55" s="53">
+        <v>6247.88</v>
+      </c>
+      <c r="F55" s="61">
+        <v>6247.88</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I55" s="53">
+        <v>6668.84</v>
+      </c>
+      <c r="J55" s="33">
+        <v>6247.88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C56" s="47">
+        <v>4</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>594</v>
+      </c>
+      <c r="E56" s="59">
+        <v>594.25</v>
+      </c>
+      <c r="F56" s="58">
+        <v>2377</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I56" s="54">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="C57" s="47">
         <v>1</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D57" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="E57" s="46">
+        <v>726.25</v>
+      </c>
+      <c r="F57" s="46">
+        <v>726.25</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="I57" s="47">
+        <v>726.25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C58" s="47">
+        <v>4</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>596</v>
+      </c>
+      <c r="E58" s="59">
+        <v>72.73</v>
+      </c>
+      <c r="F58" s="58">
+        <v>292</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" s="54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="57">
+        <f>SUM(F54:F58)</f>
+        <v>15781.900000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="C61" s="33">
+        <v>2</v>
+      </c>
+      <c r="D61" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="E52" s="46">
-        <v>6138.77</v>
-      </c>
-      <c r="F52" s="46">
-        <v>6138.77</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I52" s="54">
-        <v>6512.89</v>
-      </c>
-      <c r="J52" s="46">
-        <v>6138.77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C53" s="47">
-        <v>1</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>557</v>
-      </c>
-      <c r="E53" s="46">
-        <v>6247.88</v>
-      </c>
-      <c r="F53" s="46">
-        <v>6247.88</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I53" s="54">
-        <v>6668.84</v>
-      </c>
-      <c r="J53" s="46">
-        <v>6247.88</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="C54" s="47">
-        <v>4</v>
-      </c>
-      <c r="D54" s="47" t="s">
+      <c r="E61" s="53">
+        <v>255.72</v>
+      </c>
+      <c r="F61" s="33">
+        <v>511.44</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H61" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="E54" s="54">
-        <v>594.25</v>
-      </c>
-      <c r="F54" s="58">
-        <v>2377</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I54" s="54">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C55" s="47">
-        <v>4</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="E55" s="54">
-        <v>72.73</v>
-      </c>
-      <c r="F55" s="58">
-        <v>292</v>
-      </c>
-      <c r="G55" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I55" s="54">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="57">
-        <f>SUM(F52:F55)</f>
-        <v>15055.650000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="40"/>
-    </row>
-    <row r="58" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="33" t="s">
+      <c r="I61" s="53"/>
+      <c r="J61" s="33">
+        <v>255.72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="33" t="s">
         <v>559</v>
-      </c>
-      <c r="C58" s="33">
-        <v>2</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="E58" s="53">
-        <v>255.72</v>
-      </c>
-      <c r="F58" s="33">
-        <v>511.44</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H58" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="J58" s="53">
-        <v>255.72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="C59" s="33">
-        <v>2</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="E59" s="53">
-        <v>401.86</v>
-      </c>
-      <c r="F59" s="33">
-        <v>803.72</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="J59" s="53">
-        <v>401.86</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="C60" s="33">
-        <v>2</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="E60" s="53">
-        <v>290.44</v>
-      </c>
-      <c r="F60" s="33">
-        <v>580.88</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="J60" s="53">
-        <v>290.44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="C61" s="33">
-        <v>1</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="E61" s="33">
-        <v>901.94</v>
-      </c>
-      <c r="F61" s="33">
-        <v>901.94</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="I61" s="33">
-        <v>901.94</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
-        <v>569</v>
       </c>
       <c r="C62" s="33">
         <v>2</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="E62" s="53">
-        <v>3239.16</v>
+        <v>560</v>
+      </c>
+      <c r="E62" s="33">
+        <v>401.86</v>
       </c>
       <c r="F62" s="33">
-        <v>6478.32</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="I62" s="53">
-        <v>3239.16</v>
+        <v>803.72</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" s="33">
+        <v>401.86</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="44" t="s">
-        <v>572</v>
+      <c r="B63" s="33" t="s">
+        <v>562</v>
       </c>
       <c r="C63" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="E63" s="53">
-        <v>1440.25</v>
+        <v>561</v>
+      </c>
+      <c r="E63" s="33">
+        <v>694.78</v>
       </c>
       <c r="F63" s="33">
-        <v>1440.25</v>
-      </c>
-      <c r="G63" s="34" t="s">
-        <v>595</v>
+        <v>1680</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>471</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="I63" s="53">
-        <v>1440.25</v>
+        <v>563</v>
+      </c>
+      <c r="I63" s="33">
+        <v>694.78</v>
+      </c>
+      <c r="J63" s="33">
+        <v>290.44</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>579</v>
+        <v>564</v>
+      </c>
+      <c r="C64" s="33">
+        <v>1</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E64" s="33">
-        <v>770.78</v>
+        <v>901.94</v>
       </c>
       <c r="F64" s="33">
-        <v>3083.12</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>601</v>
+        <v>901.94</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>566</v>
       </c>
       <c r="I64" s="33">
-        <v>770.78</v>
+        <v>901.94</v>
       </c>
     </row>
     <row r="65" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="44" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C65" s="33">
         <v>2</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E65" s="53">
+        <v>3239.16</v>
+      </c>
+      <c r="F65" s="33">
+        <v>6478.32</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="I65" s="53">
+        <v>3239.16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C66" s="33">
+        <v>2</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="E66" s="33">
+        <v>932.82</v>
+      </c>
+      <c r="F66" s="33">
+        <v>1865.64</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="I66" s="33">
+        <v>932.82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="C67" s="33">
+        <v>1</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E67" s="53">
+        <v>1440.25</v>
+      </c>
+      <c r="F67" s="33">
+        <v>1440.25</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I67" s="53">
+        <v>1440.25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="E68" s="33">
+        <v>770.78</v>
+      </c>
+      <c r="F68" s="33">
+        <v>3083.12</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="I68" s="33">
+        <v>770.78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E69" s="53">
         <v>486.71</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F69" s="33">
         <v>973.42</v>
       </c>
-      <c r="G65" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I65" s="53">
+      <c r="G69" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I69" s="53">
         <v>486.71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="57">
-        <f>SUM(F58:F65)</f>
-        <v>14773.089999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="39" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="57">
+        <f>SUM(F61:F69)</f>
+        <v>17737.849999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E72" s="55">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="55">
+        <v>3300</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="40"/>
-    </row>
-    <row r="68" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E68" s="55">
-        <v>1100</v>
-      </c>
-      <c r="F68" s="55">
-        <v>3300</v>
-      </c>
-      <c r="G68" s="11" t="s">
+      <c r="E73" s="53">
+        <v>1690</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1690</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="34" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="E69" s="53">
-        <v>1690</v>
-      </c>
-      <c r="F69" s="5">
-        <v>1690</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="E70" s="53">
+      <c r="E74" s="53">
         <v>360</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F74" s="33">
         <v>360</v>
       </c>
-      <c r="G70" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E71" s="53">
-        <v>770</v>
-      </c>
-      <c r="F71" s="33">
-        <v>1925</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>541</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E72" s="53">
-        <v>770</v>
-      </c>
-      <c r="F72" s="33">
-        <v>1925</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="8"/>
-      <c r="F73" s="57">
-        <f>SUM(F68:F72)</f>
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="40"/>
+      <c r="G74" s="11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E75" s="53">
+        <v>770</v>
+      </c>
+      <c r="F75" s="33">
+        <v>1925</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E76" s="53">
+        <v>770</v>
+      </c>
+      <c r="F76" s="33">
+        <v>1925</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
-        <v>545</v>
-      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="34"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="53">
-        <v>5000</v>
-      </c>
-      <c r="F77" s="53">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="8"/>
+      <c r="F77" s="57">
+        <f>SUM(F72:F76)</f>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C79" s="34"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>553</v>
+        <v>37</v>
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="57">
-        <f>SUM(F75:F80)</f>
+      <c r="B81" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="53">
         <v>5000</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
+      <c r="F81" s="53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C83" s="34"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C84" s="34"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="57">
+        <f>SUM(F79:F84)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="40"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="40"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="33" t="s">
+      <c r="C87" s="33">
+        <v>1</v>
+      </c>
+      <c r="D87" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="C83" s="33">
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88" s="33">
         <v>1</v>
       </c>
-      <c r="D83" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="D88" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="C84" s="33">
-        <v>1</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="E84" s="53">
+      <c r="E88" s="53">
         <v>374</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F88" s="33">
         <v>374</v>
       </c>
-      <c r="G84" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="53" t="s">
-        <v>603</v>
-      </c>
-      <c r="F85" s="57">
-        <f>SUM(F11,F17,F29,F33,F38,F50,F56,F66,F73)</f>
-        <v>85407.83</v>
+      <c r="G88" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89" s="57">
+        <f>SUM(F11,F17,F31,F35,F40,F52,F59,F70,F77)</f>
+        <v>97118.69</v>
       </c>
     </row>
   </sheetData>
@@ -6928,7 +7120,7 @@
         <v>396</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>384</v>
@@ -6948,7 +7140,7 @@
         <v>399</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>384</v>
@@ -6962,39 +7154,39 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>384</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>590</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>592</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>384</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
